--- a/AUC_ROC_results/Supplemental-Table-2.xlsx
+++ b/AUC_ROC_results/Supplemental-Table-2.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bcmedu-my.sharepoint.com/personal/u244834_bcm_edu/Documents/BCM/Projects/Autosomal Dominant Predictor of IRDs/manuscript/GitHub/AUC_ROC_results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="75" documentId="8_{50F252E7-A1E1-40BE-BB10-0719F0265EF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{41918C0D-5EEE-4632-B7FD-D16B69399E74}"/>
+  <xr:revisionPtr revIDLastSave="85" documentId="8_{50F252E7-A1E1-40BE-BB10-0719F0265EF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E0B50719-BB9C-4BFA-9FD2-97C0EA0DECCF}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="7200" windowWidth="29040" windowHeight="16440" xr2:uid="{B29D94A0-D2A3-4BAF-A226-566FA92A7B35}"/>
   </bookViews>
@@ -183,12 +183,6 @@
     <t>Haploinsuffient Autosomal Dominant - Exclusive AD Haplo Variants</t>
   </si>
   <si>
-    <t>Gain-of-Function Autosomal Dominant - All AD GOF Variants</t>
-  </si>
-  <si>
-    <t>Gain-of-Function Autosomal Dominant - Exclusive AD GOF Variants</t>
-  </si>
-  <si>
     <t>All AD Variants</t>
   </si>
   <si>
@@ -198,9 +192,6 @@
     <t>Exclusive AD Haploinsufficient Variants</t>
   </si>
   <si>
-    <t>Exclusive AD Gain-of-Function Variants</t>
-  </si>
-  <si>
     <t>Classifier Performance [AUC]</t>
   </si>
   <si>
@@ -307,6 +298,15 @@
   </si>
   <si>
     <t>9. Polyphen2 [0.796]</t>
+  </si>
+  <si>
+    <t>Exclusive AD Gain-of-Function &amp; Dominant Negative Variants</t>
+  </si>
+  <si>
+    <t>Gain-of-Function &amp; Dominant Negative Autosomal Dominant - All AD GOF &amp; DN Variants</t>
+  </si>
+  <si>
+    <t>Gain-of-Function &amp; Dominant Negative Autosomal Dominant - Exclusive AD GOF &amp; DN Variants</t>
   </si>
 </sst>
 </file>
@@ -423,6 +423,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -432,10 +436,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -753,162 +753,162 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="27.42578125" customWidth="1"/>
     <col min="3" max="3" width="38" customWidth="1"/>
-    <col min="4" max="4" width="37.85546875" customWidth="1"/>
+    <col min="4" max="4" width="55.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
+      <c r="A1" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="B2" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>53</v>
+      <c r="D2" s="3" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D3" t="s">
         <v>55</v>
-      </c>
-      <c r="B3" t="s">
-        <v>56</v>
-      </c>
-      <c r="C3" t="s">
-        <v>57</v>
-      </c>
-      <c r="D3" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C4" t="s">
+        <v>58</v>
+      </c>
+      <c r="D4" t="s">
         <v>59</v>
-      </c>
-      <c r="B4" t="s">
-        <v>60</v>
-      </c>
-      <c r="C4" t="s">
-        <v>61</v>
-      </c>
-      <c r="D4" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B5" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C5" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D5" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>63</v>
+      </c>
+      <c r="B6" t="s">
+        <v>64</v>
+      </c>
+      <c r="C6" t="s">
+        <v>65</v>
+      </c>
+      <c r="D6" t="s">
         <v>66</v>
-      </c>
-      <c r="B6" t="s">
-        <v>67</v>
-      </c>
-      <c r="C6" t="s">
-        <v>68</v>
-      </c>
-      <c r="D6" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>67</v>
+      </c>
+      <c r="B7" t="s">
+        <v>68</v>
+      </c>
+      <c r="C7" t="s">
+        <v>69</v>
+      </c>
+      <c r="D7" t="s">
         <v>70</v>
-      </c>
-      <c r="B7" t="s">
-        <v>71</v>
-      </c>
-      <c r="C7" t="s">
-        <v>72</v>
-      </c>
-      <c r="D7" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>71</v>
+      </c>
+      <c r="B8" t="s">
+        <v>72</v>
+      </c>
+      <c r="C8" t="s">
+        <v>73</v>
+      </c>
+      <c r="D8" t="s">
         <v>74</v>
-      </c>
-      <c r="B8" t="s">
-        <v>75</v>
-      </c>
-      <c r="C8" t="s">
-        <v>76</v>
-      </c>
-      <c r="D8" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>75</v>
+      </c>
+      <c r="B9" t="s">
+        <v>76</v>
+      </c>
+      <c r="C9" t="s">
+        <v>77</v>
+      </c>
+      <c r="D9" t="s">
         <v>78</v>
-      </c>
-      <c r="B9" t="s">
-        <v>79</v>
-      </c>
-      <c r="C9" t="s">
-        <v>80</v>
-      </c>
-      <c r="D9" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>79</v>
+      </c>
+      <c r="B10" t="s">
+        <v>80</v>
+      </c>
+      <c r="C10" t="s">
+        <v>81</v>
+      </c>
+      <c r="D10" t="s">
         <v>82</v>
-      </c>
-      <c r="B10" t="s">
-        <v>83</v>
-      </c>
-      <c r="C10" t="s">
-        <v>84</v>
-      </c>
-      <c r="D10" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>83</v>
+      </c>
+      <c r="B11" t="s">
+        <v>84</v>
+      </c>
+      <c r="C11" t="s">
+        <v>85</v>
+      </c>
+      <c r="D11" t="s">
         <v>86</v>
-      </c>
-      <c r="B11" t="s">
-        <v>87</v>
-      </c>
-      <c r="C11" t="s">
-        <v>88</v>
-      </c>
-      <c r="D11" t="s">
-        <v>89</v>
       </c>
     </row>
   </sheetData>
@@ -924,7 +924,7 @@
   <dimension ref="A1:AE41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -944,54 +944,54 @@
     <col min="19" max="19" width="17.7109375" customWidth="1"/>
     <col min="21" max="21" width="37.28515625" customWidth="1"/>
     <col min="23" max="23" width="17.7109375" customWidth="1"/>
-    <col min="25" max="25" width="36.42578125" customWidth="1"/>
+    <col min="25" max="25" width="55.28515625" customWidth="1"/>
     <col min="26" max="26" width="10.28515625" customWidth="1"/>
     <col min="27" max="27" width="19.28515625" customWidth="1"/>
-    <col min="29" max="29" width="36.85546875" customWidth="1"/>
+    <col min="29" max="29" width="62.140625" customWidth="1"/>
     <col min="31" max="31" width="18.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="5"/>
-      <c r="E1" s="3" t="s">
+      <c r="B1" s="6"/>
+      <c r="C1" s="7"/>
+      <c r="E1" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="F1" s="4"/>
-      <c r="G1" s="5"/>
-      <c r="I1" s="3" t="s">
+      <c r="F1" s="6"/>
+      <c r="G1" s="7"/>
+      <c r="I1" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="J1" s="4"/>
-      <c r="K1" s="5"/>
-      <c r="M1" s="3" t="s">
+      <c r="J1" s="6"/>
+      <c r="K1" s="7"/>
+      <c r="M1" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="N1" s="4"/>
-      <c r="O1" s="5"/>
-      <c r="Q1" s="3" t="s">
+      <c r="N1" s="6"/>
+      <c r="O1" s="7"/>
+      <c r="Q1" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="R1" s="4"/>
-      <c r="S1" s="5"/>
-      <c r="U1" s="3" t="s">
+      <c r="R1" s="6"/>
+      <c r="S1" s="7"/>
+      <c r="U1" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="V1" s="4"/>
-      <c r="W1" s="5"/>
-      <c r="Y1" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="Z1" s="4"/>
-      <c r="AA1" s="5"/>
-      <c r="AC1" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="AD1" s="4"/>
-      <c r="AE1" s="5"/>
+      <c r="V1" s="6"/>
+      <c r="W1" s="7"/>
+      <c r="Y1" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="Z1" s="6"/>
+      <c r="AA1" s="7"/>
+      <c r="AC1" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="AD1" s="6"/>
+      <c r="AE1" s="7"/>
     </row>
     <row r="2" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
